--- a/exam_schedule.xlsx
+++ b/exam_schedule.xlsx
@@ -483,7 +483,7 @@
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
@@ -511,12 +511,12 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
@@ -544,12 +544,12 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
@@ -577,12 +577,12 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
@@ -615,7 +615,7 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
@@ -643,12 +643,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D7" t="inlineStr">
@@ -676,12 +676,12 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
@@ -709,12 +709,12 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
@@ -747,7 +747,7 @@
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
@@ -775,12 +775,12 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
@@ -808,12 +808,12 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
@@ -841,12 +841,12 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
@@ -907,12 +907,12 @@
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
@@ -940,12 +940,12 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
@@ -973,12 +973,12 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
@@ -1011,7 +1011,7 @@
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
@@ -1039,12 +1039,12 @@
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
@@ -1072,12 +1072,12 @@
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
@@ -1105,12 +1105,12 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
@@ -1143,7 +1143,7 @@
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
@@ -1171,12 +1171,12 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
@@ -1204,12 +1204,12 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
@@ -1237,12 +1237,12 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
@@ -1275,7 +1275,7 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
@@ -1303,12 +1303,12 @@
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
@@ -1336,12 +1336,12 @@
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
@@ -1374,7 +1374,7 @@
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D29" t="inlineStr">
@@ -1402,12 +1402,12 @@
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D30" t="inlineStr">
@@ -1435,12 +1435,12 @@
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D31" t="inlineStr">
@@ -1473,7 +1473,7 @@
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
@@ -1501,12 +1501,12 @@
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
@@ -1534,12 +1534,12 @@
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
@@ -1572,7 +1572,7 @@
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
@@ -1600,12 +1600,12 @@
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
@@ -1633,12 +1633,12 @@
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
@@ -1671,7 +1671,7 @@
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
@@ -1699,12 +1699,12 @@
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
@@ -1732,12 +1732,12 @@
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">

--- a/exam_schedule.xlsx
+++ b/exam_schedule.xlsx
@@ -521,11 +521,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t xml:space="preserve">Programlama Laboratuvarı - I </t>
+          <t>Bitirme Çalışması</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
@@ -554,11 +554,11 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Robotlar için Matematik Temelleri</t>
+          <t>Fizik I</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F4" t="n">
         <v>100</v>
@@ -587,11 +587,11 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Mühendisler için İstatistik</t>
+          <t>Bilgisayar Laboratuvarı I</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F5" t="n">
         <v>100</v>
@@ -605,26 +605,26 @@
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Diferansiyel Denklemler</t>
+          <t>Gezgin Robotlara Giriş</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F6" t="n">
         <v>100</v>
@@ -643,21 +643,21 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
           <t>10:15</t>
         </is>
       </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>İngilizce I</t>
+          <t>Diferansiyel Denklemler</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F7" t="n">
         <v>100</v>
@@ -676,21 +676,21 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Lineer Cebir</t>
+          <t>Mikroişlemci Sistemleri</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F8" t="n">
         <v>100</v>
@@ -709,21 +709,21 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Derin Öğrenmenin Temelleri</t>
+          <t>Staj I</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F9" t="n">
         <v>100</v>
@@ -737,26 +737,26 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Sayısal Yöntemler</t>
+          <t>Bilgisayarlı Görmenin Temelleri</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F10" t="n">
         <v>100</v>
@@ -770,26 +770,26 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Mantıksal Tasarım ve Uygulamalar</t>
+          <t>Biyoinformatiğe Giriş</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
@@ -808,21 +808,21 @@
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Programlanabilir Yapılar</t>
+          <t>Sayısal Yöntemler</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F12" t="n">
         <v>100</v>
@@ -841,21 +841,21 @@
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>Doğal Dil İşleme ve Metin Madenciliğine Giriş</t>
+          <t xml:space="preserve">Programlama Laboratuvarı - I </t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -869,26 +869,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Araştırma Problemleri</t>
+          <t>Bilgi Güvenliği ve Kriptografi</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
@@ -902,26 +902,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yazılım Laboratuvarı I </t>
+          <t>Bilgisayar Mühendisliğine Giriş</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
@@ -935,26 +935,26 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Matematik I</t>
+          <t>Bilgisayar Semineri</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F16" t="n">
         <v>100</v>
@@ -973,17 +973,17 @@
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Gezgin Robotlara Giriş</t>
+          <t>Araştırma Problemleri</t>
         </is>
       </c>
       <c r="E17" t="n">
@@ -1001,26 +1001,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>İşaret ve Sistemler</t>
+          <t>İngilizce I</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
@@ -1034,22 +1034,22 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>Bilgisayar Ağları</t>
+          <t>İş Hayatı ve İş Güvenliğine Hazırlık</t>
         </is>
       </c>
       <c r="E19" t="n">
@@ -1067,22 +1067,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Yazılım Proje Yönetimi</t>
+          <t>Veri Madenciliğine Giriş</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1105,21 +1105,21 @@
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>Biyoinformatiğe Giriş</t>
+          <t>İşaret ve Sistemler</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
@@ -1133,22 +1133,22 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Nesneye Yönelik Programlama</t>
+          <t>Mantıksal Tasarım ve Uygulamalar</t>
         </is>
       </c>
       <c r="E22" t="n">
@@ -1166,22 +1166,22 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Staj II</t>
+          <t>Robotlar için Matematik Temelleri</t>
         </is>
       </c>
       <c r="E23" t="n">
@@ -1199,22 +1199,22 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>Bilgisayar Laboratuvarı I</t>
+          <t xml:space="preserve">Programlama I </t>
         </is>
       </c>
       <c r="E24" t="n">
@@ -1237,21 +1237,21 @@
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Bilgisayar Semineri</t>
+          <t>Nesneye Yönelik Programlama</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F25" t="n">
         <v>100</v>
@@ -1265,26 +1265,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>Türk Dili I</t>
+          <t xml:space="preserve">Yazılım Laboratuvarı I </t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26" t="n">
         <v>100</v>
@@ -1298,26 +1298,26 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Ayrık Matematik</t>
+          <t>Lineer Cebir</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F27" t="n">
         <v>100</v>
@@ -1331,22 +1331,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Bilgisayarlı Görmenin Temelleri</t>
+          <t>Mobil Programlama</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1364,7 +1364,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Veri Yapıları ve Algoritmaları</t>
+          <t>Türk Dili I</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F29" t="n">
         <v>100</v>
@@ -1397,7 +1397,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Fizik I</t>
+          <t>Bilgisayar Ağları</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F30" t="n">
         <v>100</v>
@@ -1430,7 +1430,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Bilgisayar Mühendisliğine Giriş</t>
+          <t>Programlanabilir Yapılar</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F31" t="n">
         <v>100</v>
@@ -1463,26 +1463,26 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-18</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>İşletim Sistemleri</t>
+          <t>Mühendisler için İstatistik</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F32" t="n">
         <v>100</v>
@@ -1496,22 +1496,22 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
+          <t>09:00</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
           <t>10:15</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr">
-        <is>
-          <t>11:30</t>
-        </is>
-      </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Staj I</t>
+          <t>Veri Yapıları ve Algoritmaları</t>
         </is>
       </c>
       <c r="E33" t="n">
@@ -1529,26 +1529,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Veri Madenciliğine Giriş</t>
+          <t>Staj II</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F34" t="n">
         <v>100</v>
@@ -1562,26 +1562,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Bitirme Çalışması</t>
+          <t>Matematik I</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
@@ -1595,26 +1595,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-19</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Bilgi Güvenliği ve Kriptografi</t>
+          <t>Derin Öğrenmenin Temelleri</t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F36" t="n">
         <v>100</v>
@@ -1628,26 +1628,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-21</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t xml:space="preserve">Programlama I </t>
+          <t>İşletim Sistemleri</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F37" t="n">
         <v>100</v>
@@ -1661,26 +1661,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Mikroişlemci Sistemleri</t>
+          <t>Ayrık Matematik</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
@@ -1694,22 +1694,22 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>İş Hayatı ve İş Güvenliğine Hazırlık</t>
+          <t>Yazılım Proje Yönetimi</t>
         </is>
       </c>
       <c r="E39" t="n">
@@ -1727,22 +1727,22 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-22</t>
+          <t>2025-10-20</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
         <is>
-          <t>Mobil Programlama</t>
+          <t>Doğal Dil İşleme ve Metin Madenciliğine Giriş</t>
         </is>
       </c>
       <c r="E40" t="n">

--- a/exam_schedule.xlsx
+++ b/exam_schedule.xlsx
@@ -521,11 +521,11 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>Bitirme Çalışması</t>
+          <t>Türk Dili I</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F3" t="n">
         <v>100</v>
@@ -554,7 +554,7 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>Fizik I</t>
+          <t>İngilizce I</t>
         </is>
       </c>
       <c r="E4" t="n">
@@ -587,7 +587,7 @@
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>Bilgisayar Laboratuvarı I</t>
+          <t>Fizik I</t>
         </is>
       </c>
       <c r="E5" t="n">
@@ -620,7 +620,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Gezgin Robotlara Giriş</t>
+          <t>Programlanabilir Yapılar</t>
         </is>
       </c>
       <c r="E6" t="n">
@@ -638,7 +638,7 @@
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
@@ -653,11 +653,11 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>Diferansiyel Denklemler</t>
+          <t>Veri Madenciliğine Giriş</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F7" t="n">
         <v>100</v>
@@ -671,26 +671,26 @@
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>2025-10-13</t>
+          <t>2025-10-12</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>Mikroişlemci Sistemleri</t>
+          <t>Gezgin Robotlara Giriş</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F8" t="n">
         <v>100</v>
@@ -709,17 +709,17 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C9" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>Staj I</t>
+          <t>Diferansiyel Denklemler</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -742,21 +742,21 @@
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>Bilgisayarlı Görmenin Temelleri</t>
+          <t>Veri Yapıları ve Algoritmaları</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F10" t="n">
         <v>100</v>
@@ -775,21 +775,21 @@
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>Biyoinformatiğe Giriş</t>
+          <t>Mantıksal Tasarım ve Uygulamalar</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F11" t="n">
         <v>100</v>
@@ -803,26 +803,26 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>Sayısal Yöntemler</t>
+          <t>Staj I</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F12" t="n">
         <v>100</v>
@@ -836,26 +836,26 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t xml:space="preserve">Programlama Laboratuvarı - I </t>
+          <t>Matematik I</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F13" t="n">
         <v>100</v>
@@ -869,26 +869,26 @@
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>Bilgi Güvenliği ve Kriptografi</t>
+          <t xml:space="preserve">Programlama I </t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="F14" t="n">
         <v>100</v>
@@ -902,26 +902,26 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>2025-10-14</t>
+          <t>2025-10-13</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>Bilgisayar Mühendisliğine Giriş</t>
+          <t>Biyoinformatiğe Giriş</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F15" t="n">
         <v>100</v>
@@ -940,21 +940,21 @@
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>14:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>16:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>Bilgisayar Semineri</t>
+          <t>Sayısal Yöntemler</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F16" t="n">
         <v>100</v>
@@ -968,26 +968,26 @@
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>Araştırma Problemleri</t>
+          <t>İşletim Sistemleri</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F17" t="n">
         <v>100</v>
@@ -1001,26 +1001,26 @@
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>İngilizce I</t>
+          <t xml:space="preserve">Yazılım Laboratuvarı I </t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F18" t="n">
         <v>100</v>
@@ -1034,26 +1034,26 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>İş Hayatı ve İş Güvenliğine Hazırlık</t>
+          <t>Bilgi Güvenliği ve Kriptografi</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F19" t="n">
         <v>100</v>
@@ -1067,22 +1067,22 @@
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>2025-10-15</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>Veri Madenciliğine Giriş</t>
+          <t>Yazılım Proje Yönetimi</t>
         </is>
       </c>
       <c r="E20" t="n">
@@ -1100,7 +1100,7 @@
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -1115,11 +1115,11 @@
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>İşaret ve Sistemler</t>
+          <t>Mobil Programlama</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F21" t="n">
         <v>100</v>
@@ -1133,26 +1133,26 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-14</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Mantıksal Tasarım ve Uygulamalar</t>
+          <t>Bilgisayar Semineri</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F22" t="n">
         <v>100</v>
@@ -1166,26 +1166,26 @@
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Robotlar için Matematik Temelleri</t>
+          <t>Araştırma Problemleri</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F23" t="n">
         <v>100</v>
@@ -1199,26 +1199,26 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>2025-10-16</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t xml:space="preserve">Programlama I </t>
+          <t>Bitirme Çalışması</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="F24" t="n">
         <v>100</v>
@@ -1232,26 +1232,26 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>Nesneye Yönelik Programlama</t>
+          <t>Bilgisayar Ağları</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F25" t="n">
         <v>100</v>
@@ -1265,26 +1265,26 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t xml:space="preserve">Yazılım Laboratuvarı I </t>
+          <t>İş Hayatı ve İş Güvenliğine Hazırlık</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F26" t="n">
         <v>100</v>
@@ -1298,22 +1298,22 @@
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>Lineer Cebir</t>
+          <t>Bilgisayar Laboratuvarı I</t>
         </is>
       </c>
       <c r="E27" t="n">
@@ -1331,22 +1331,22 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>2025-10-17</t>
+          <t>2025-10-15</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>Mobil Programlama</t>
+          <t>Mühendisler için İstatistik</t>
         </is>
       </c>
       <c r="E28" t="n">
@@ -1364,7 +1364,7 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
@@ -1379,11 +1379,11 @@
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>Türk Dili I</t>
+          <t>İşaret ve Sistemler</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F29" t="n">
         <v>100</v>
@@ -1397,7 +1397,7 @@
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -1412,11 +1412,11 @@
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>Bilgisayar Ağları</t>
+          <t>Mikroişlemci Sistemleri</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F30" t="n">
         <v>100</v>
@@ -1430,7 +1430,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -1445,11 +1445,11 @@
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>Programlanabilir Yapılar</t>
+          <t>Staj II</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F31" t="n">
         <v>100</v>
@@ -1463,7 +1463,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>2025-10-18</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -1478,11 +1478,11 @@
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>Mühendisler için İstatistik</t>
+          <t>Robotlar için Matematik Temelleri</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="F32" t="n">
         <v>100</v>
@@ -1496,26 +1496,26 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>Veri Yapıları ve Algoritmaları</t>
+          <t>Bilgisayarlı Görmenin Temelleri</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="F33" t="n">
         <v>100</v>
@@ -1529,26 +1529,26 @@
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-16</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>Staj II</t>
+          <t>Derin Öğrenmenin Temelleri</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="F34" t="n">
         <v>100</v>
@@ -1562,26 +1562,26 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>Matematik I</t>
+          <t>Nesneye Yönelik Programlama</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="F35" t="n">
         <v>100</v>
@@ -1595,26 +1595,26 @@
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>2025-10-19</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="C36" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>11:30</t>
         </is>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>Derin Öğrenmenin Temelleri</t>
+          <t xml:space="preserve">Programlama Laboratuvarı - I </t>
         </is>
       </c>
       <c r="E36" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="F36" t="n">
         <v>100</v>
@@ -1628,26 +1628,26 @@
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>09:00</t>
+          <t>11:45</t>
         </is>
       </c>
       <c r="C37" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:00</t>
         </is>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>İşletim Sistemleri</t>
+          <t>Ayrık Matematik</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="F37" t="n">
         <v>100</v>
@@ -1661,26 +1661,26 @@
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>10:15</t>
+          <t>13:15</t>
         </is>
       </c>
       <c r="C38" t="inlineStr">
         <is>
-          <t>11:30</t>
+          <t>14:30</t>
         </is>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>Ayrık Matematik</t>
+          <t>Lineer Cebir</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F38" t="n">
         <v>100</v>
@@ -1694,26 +1694,26 @@
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>11:45</t>
+          <t>14:45</t>
         </is>
       </c>
       <c r="C39" t="inlineStr">
         <is>
-          <t>13:00</t>
+          <t>16:00</t>
         </is>
       </c>
       <c r="D39" t="inlineStr">
         <is>
-          <t>Yazılım Proje Yönetimi</t>
+          <t>Bilgisayar Mühendisliğine Giriş</t>
         </is>
       </c>
       <c r="E39" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="F39" t="n">
         <v>100</v>
@@ -1727,17 +1727,17 @@
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>2025-10-20</t>
+          <t>2025-10-17</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>13:15</t>
+          <t>09:00</t>
         </is>
       </c>
       <c r="C40" t="inlineStr">
         <is>
-          <t>14:30</t>
+          <t>10:15</t>
         </is>
       </c>
       <c r="D40" t="inlineStr">
